--- a/Basic operation.xlsx
+++ b/Basic operation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Santias\Desktop\Uni\CAB301\assignment 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Santias\Desktop\Uni\CAB301\CAB301-A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17720392-A6D4-4C67-B0AA-62CAA9B08A35}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58C0B50-E91A-4053-956C-3BF00716AE31}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Input size</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>Median Algorithm</t>
+  </si>
+  <si>
+    <t>Median Prediction</t>
+  </si>
+  <si>
+    <t>Brute Force Prediction</t>
   </si>
 </sst>
 </file>
@@ -123,13 +129,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average</a:t>
+              <a:t>Average Basic Operation for each input size</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Basic operation for each input size</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -166,7 +167,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -506,7 +507,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6EE0-49C7-BDC8-6DEC7CA2E57D}"/>
+              <c16:uniqueId val="{00000004-5D74-4768-9151-A4696AFCF3CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -848,7 +849,691 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6EE0-49C7-BDC8-6DEC7CA2E57D}"/>
+              <c16:uniqueId val="{00000005-5D74-4768-9151-A4696AFCF3CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Median Prediction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5D74-4768-9151-A4696AFCF3CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brute Force Prediction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1035</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1081</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1128</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1176</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1275</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1326</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1378</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1431</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1485</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1540</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1596</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1653</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1711</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1770</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1891</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1953</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2145</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2211</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2278</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2346</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2415</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2485</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2556</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2628</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2701</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2775</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2926</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3081</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3160</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3240</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3321</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3403</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3486</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3570</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3655</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3741</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3828</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3916</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4005</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4186</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4278</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4371</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4465</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4560</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4656</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4753</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4851</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4950</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-5D74-4768-9151-A4696AFCF3CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -861,11 +1546,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="449789712"/>
-        <c:axId val="449791024"/>
+        <c:axId val="413239680"/>
+        <c:axId val="413235088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="449789712"/>
+        <c:axId val="413239680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -892,7 +1577,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Input size</a:t>
+                  <a:t>Input Size</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -962,7 +1647,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449791024"/>
+        <c:crossAx val="413235088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -970,7 +1655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="449791024"/>
+        <c:axId val="413235088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1076,7 +1761,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449789712"/>
+        <c:crossAx val="413239680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1120,7 +1805,2147 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Basic Operation results for each input size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Median Algorithm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>315</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-71FF-4C51-8187-9163E0D2C07E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brute Force Algorithm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>596</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>694</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>737</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>851</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1035</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1028</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1128</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1213</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1326</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1294</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1431</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1404</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1540</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1554</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1653</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1566</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1770</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1891</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1886</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2145</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2063</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2278</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2194</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2415</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2440</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2556</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2395</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2701</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2567</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2852</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3003</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2862</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3160</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3157</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3321</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3293</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3486</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3455</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3655</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3531</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3828</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3781</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4005</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3741</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4186</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4121</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4371</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4239</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4560</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4505</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4753</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4498</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4950</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4513</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-71FF-4C51-8187-9163E0D2C07E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="413239680"/>
+        <c:axId val="413235088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="413239680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Input Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413235088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="413235088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Basic Operation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413239680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Basic Operation prediction for each input size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Median Prediction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7288-43F3-B37C-6C2046C5B19C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brute Force Prediction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1035</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1081</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1128</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1176</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1275</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1326</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1378</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1431</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1485</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1540</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1596</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1653</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1711</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1770</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1891</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1953</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2145</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2211</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2278</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2346</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2415</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2485</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2556</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2628</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2701</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2775</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2926</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3081</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3160</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3240</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3321</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3403</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3486</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3570</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3655</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3741</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3828</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3916</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4005</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4186</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4278</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4371</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4465</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4560</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4656</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4753</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4851</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4950</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7288-43F3-B37C-6C2046C5B19C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="413239680"/>
+        <c:axId val="413235088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="413239680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Input Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413235088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="413235088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Basic Operation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413239680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1203,6 +4028,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1719,27 +4624,1059 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>225424</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>196849</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99DC1ACE-43A9-4C9A-92CB-40FDABF343AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D019A68-DEE8-4B77-87E6-68C6C1DA77CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1752,6 +5689,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>187325</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8357C7B-4FB8-4599-927A-37721D2EC6D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>212725</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC3EB921-A14D-4ABA-8FE5-C083B736B871}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2023,10 +6036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2034,9 +6047,11 @@
     <col min="1" max="1" width="11.453125" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2046,8 +6061,14 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2057,8 +6078,16 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <f>4*A2</f>
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <f>(A2^2-A2)/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2068,8 +6097,16 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">4*A3</f>
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="1">(A3^2-A3)/2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2079,8 +6116,16 @@
       <c r="C4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <f>4*A4</f>
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2090,8 +6135,16 @@
       <c r="C5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2101,8 +6154,16 @@
       <c r="C6">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2112,8 +6173,16 @@
       <c r="C7">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2123,8 +6192,16 @@
       <c r="C8">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <f>4*A8</f>
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2134,8 +6211,16 @@
       <c r="C9">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2145,8 +6230,16 @@
       <c r="C10">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2156,8 +6249,16 @@
       <c r="C11">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2167,8 +6268,16 @@
       <c r="C12">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2178,8 +6287,16 @@
       <c r="C13">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2189,8 +6306,16 @@
       <c r="C14">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2200,8 +6325,16 @@
       <c r="C15">
         <v>88</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2211,8 +6344,16 @@
       <c r="C16">
         <v>120</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2222,8 +6363,16 @@
       <c r="C17">
         <v>122</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2233,8 +6382,16 @@
       <c r="C18">
         <v>153</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2244,8 +6401,16 @@
       <c r="C19">
         <v>144</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2255,8 +6420,16 @@
       <c r="C20">
         <v>190</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2266,8 +6439,16 @@
       <c r="C21">
         <v>186</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2277,8 +6458,16 @@
       <c r="C22">
         <v>231</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2288,8 +6477,16 @@
       <c r="C23">
         <v>228</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2299,8 +6496,16 @@
       <c r="C24">
         <v>276</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2310,8 +6515,16 @@
       <c r="C25">
         <v>264</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2321,8 +6534,16 @@
       <c r="C26">
         <v>325</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2332,8 +6553,16 @@
       <c r="C27">
         <v>309</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2343,8 +6572,16 @@
       <c r="C28">
         <v>378</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2354,8 +6591,16 @@
       <c r="C29">
         <v>383</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2365,8 +6610,16 @@
       <c r="C30">
         <v>435</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2376,8 +6629,16 @@
       <c r="C31">
         <v>429</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2387,8 +6648,16 @@
       <c r="C32">
         <v>496</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2398,8 +6667,16 @@
       <c r="C33">
         <v>454</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2409,8 +6686,16 @@
       <c r="C34">
         <v>561</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2420,8 +6705,16 @@
       <c r="C35">
         <v>562</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>561</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2431,8 +6724,16 @@
       <c r="C36">
         <v>630</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>595</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2442,8 +6743,16 @@
       <c r="C37">
         <v>596</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D37">
+        <f>4*A37</f>
+        <v>144</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2453,8 +6762,16 @@
       <c r="C38">
         <v>703</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2464,8 +6781,16 @@
       <c r="C39">
         <v>694</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>703</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2475,8 +6800,16 @@
       <c r="C40">
         <v>780</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>741</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2486,8 +6819,16 @@
       <c r="C41">
         <v>737</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2497,8 +6838,16 @@
       <c r="C42">
         <v>861</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>820</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2508,8 +6857,16 @@
       <c r="C43">
         <v>851</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>861</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2519,8 +6876,16 @@
       <c r="C44">
         <v>946</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2530,8 +6895,16 @@
       <c r="C45">
         <v>913</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>946</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2541,8 +6914,16 @@
       <c r="C46">
         <v>1035</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2552,8 +6933,16 @@
       <c r="C47">
         <v>1028</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2563,8 +6952,16 @@
       <c r="C48">
         <v>1128</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2574,8 +6971,16 @@
       <c r="C49">
         <v>1036</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2585,8 +6990,16 @@
       <c r="C50">
         <v>1225</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2596,8 +7009,16 @@
       <c r="C51">
         <v>1213</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2607,8 +7028,16 @@
       <c r="C52">
         <v>1326</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2618,8 +7047,16 @@
       <c r="C53">
         <v>1294</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2629,8 +7066,16 @@
       <c r="C54">
         <v>1431</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2640,8 +7085,16 @@
       <c r="C55">
         <v>1404</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2651,8 +7104,16 @@
       <c r="C56">
         <v>1540</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2662,8 +7123,16 @@
       <c r="C57">
         <v>1554</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2673,8 +7142,16 @@
       <c r="C58">
         <v>1653</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>228</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2684,8 +7161,16 @@
       <c r="C59">
         <v>1566</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>232</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2695,8 +7180,16 @@
       <c r="C60">
         <v>1770</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>236</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2706,8 +7199,16 @@
       <c r="C61">
         <v>1700</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2717,8 +7218,16 @@
       <c r="C62">
         <v>1891</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>244</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2728,8 +7237,16 @@
       <c r="C63">
         <v>1886</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D63">
+        <f>4*A63</f>
+        <v>248</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2739,8 +7256,16 @@
       <c r="C64">
         <v>2016</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2750,8 +7275,16 @@
       <c r="C65">
         <v>2001</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2761,8 +7294,16 @@
       <c r="C66">
         <v>2145</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2772,8 +7313,16 @@
       <c r="C67">
         <v>2063</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D67">
+        <f t="shared" ref="D67:D101" si="2">4*A67</f>
+        <v>264</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E101" si="3">(A67^2-A67)/2</f>
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2783,8 +7332,16 @@
       <c r="C68">
         <v>2278</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D68">
+        <f t="shared" si="2"/>
+        <v>268</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="3"/>
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2794,8 +7351,16 @@
       <c r="C69">
         <v>2194</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D69">
+        <f t="shared" si="2"/>
+        <v>272</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="3"/>
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2805,8 +7370,16 @@
       <c r="C70">
         <v>2415</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D70">
+        <f t="shared" si="2"/>
+        <v>276</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="3"/>
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2816,8 +7389,16 @@
       <c r="C71">
         <v>2440</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D71">
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="3"/>
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2827,8 +7408,16 @@
       <c r="C72">
         <v>2556</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D72">
+        <f t="shared" si="2"/>
+        <v>284</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="3"/>
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2838,8 +7427,16 @@
       <c r="C73">
         <v>2395</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D73">
+        <f t="shared" si="2"/>
+        <v>288</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="3"/>
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2849,8 +7446,16 @@
       <c r="C74">
         <v>2701</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D74">
+        <f t="shared" si="2"/>
+        <v>292</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="3"/>
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2860,8 +7465,16 @@
       <c r="C75">
         <v>2567</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D75">
+        <f t="shared" si="2"/>
+        <v>296</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="3"/>
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2871,8 +7484,16 @@
       <c r="C76">
         <v>2850</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D76">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="3"/>
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2882,8 +7503,16 @@
       <c r="C77">
         <v>2852</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D77">
+        <f t="shared" si="2"/>
+        <v>304</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="3"/>
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2893,8 +7522,16 @@
       <c r="C78">
         <v>3003</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D78">
+        <f t="shared" si="2"/>
+        <v>308</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="3"/>
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2904,8 +7541,16 @@
       <c r="C79">
         <v>2862</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D79">
+        <f t="shared" si="2"/>
+        <v>312</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="3"/>
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2915,8 +7560,16 @@
       <c r="C80">
         <v>3160</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D80">
+        <f t="shared" si="2"/>
+        <v>316</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="3"/>
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2926,8 +7579,16 @@
       <c r="C81">
         <v>3157</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D81">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="3"/>
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2937,8 +7598,16 @@
       <c r="C82">
         <v>3321</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D82">
+        <f t="shared" si="2"/>
+        <v>324</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="3"/>
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2948,8 +7617,16 @@
       <c r="C83">
         <v>3293</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D83">
+        <f t="shared" si="2"/>
+        <v>328</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="3"/>
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2959,8 +7636,16 @@
       <c r="C84">
         <v>3486</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D84">
+        <f t="shared" si="2"/>
+        <v>332</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="3"/>
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2970,8 +7655,16 @@
       <c r="C85">
         <v>3455</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D85">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="3"/>
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2981,8 +7674,16 @@
       <c r="C86">
         <v>3655</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D86">
+        <f t="shared" si="2"/>
+        <v>340</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="3"/>
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2992,8 +7693,16 @@
       <c r="C87">
         <v>3531</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D87">
+        <f t="shared" si="2"/>
+        <v>344</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="3"/>
+        <v>3655</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3003,8 +7712,16 @@
       <c r="C88">
         <v>3828</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D88">
+        <f t="shared" si="2"/>
+        <v>348</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="3"/>
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3014,8 +7731,16 @@
       <c r="C89">
         <v>3781</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D89">
+        <f t="shared" si="2"/>
+        <v>352</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="3"/>
+        <v>3828</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3025,8 +7750,16 @@
       <c r="C90">
         <v>4005</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D90">
+        <f t="shared" si="2"/>
+        <v>356</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="3"/>
+        <v>3916</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3036,8 +7769,16 @@
       <c r="C91">
         <v>3741</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D91">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="3"/>
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3047,8 +7788,16 @@
       <c r="C92">
         <v>4186</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D92">
+        <f t="shared" si="2"/>
+        <v>364</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="3"/>
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3058,8 +7807,16 @@
       <c r="C93">
         <v>4121</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D93">
+        <f t="shared" si="2"/>
+        <v>368</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="3"/>
+        <v>4186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3069,8 +7826,16 @@
       <c r="C94">
         <v>4371</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D94">
+        <f t="shared" si="2"/>
+        <v>372</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="3"/>
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3080,8 +7845,16 @@
       <c r="C95">
         <v>4239</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D95">
+        <f t="shared" si="2"/>
+        <v>376</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="3"/>
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3091,8 +7864,16 @@
       <c r="C96">
         <v>4560</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D96">
+        <f t="shared" si="2"/>
+        <v>380</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="3"/>
+        <v>4465</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3102,8 +7883,16 @@
       <c r="C97">
         <v>4505</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D97">
+        <f t="shared" si="2"/>
+        <v>384</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="3"/>
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3113,8 +7902,16 @@
       <c r="C98">
         <v>4753</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D98">
+        <f t="shared" si="2"/>
+        <v>388</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="3"/>
+        <v>4656</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3124,8 +7921,16 @@
       <c r="C99">
         <v>4498</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D99">
+        <f t="shared" si="2"/>
+        <v>392</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="3"/>
+        <v>4753</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3135,8 +7940,16 @@
       <c r="C100">
         <v>4950</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D100">
+        <f t="shared" si="2"/>
+        <v>396</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="3"/>
+        <v>4851</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3145,6 +7958,14 @@
       </c>
       <c r="C101">
         <v>4513</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="3"/>
+        <v>4950</v>
       </c>
     </row>
   </sheetData>

--- a/Basic operation.xlsx
+++ b/Basic operation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Santias\Desktop\Uni\CAB301\CAB301-A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58C0B50-E91A-4053-956C-3BF00716AE31}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D37A7D-E666-4BD2-960E-D2372066EED5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6038,8 +6038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6197,7 +6197,7 @@
         <v>28</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f>(A8^2-A8)/2</f>
         <v>21</v>
       </c>
     </row>
